--- a/outline/outline.xlsx
+++ b/outline/outline.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elastic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\elastic\hz_meetup\github-repo\outline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,9 @@
     <sheet name="outlines" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">outlines!$A$1:$H$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">outlines!$A$1:$H$35</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="91">
   <si>
     <t>Installation and Configuration</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Write and execute aggregations that contain sub-aggregations</t>
   </si>
   <si>
-    <t>Write and execute pipeline aggregations</t>
-  </si>
-  <si>
     <t>Mappings and Text Analysis</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>Configure an index so that it properly maintains the relationships of nested arrays of objects</t>
-  </si>
-  <si>
-    <t>Configure an index that implements a parent/child relationship</t>
   </si>
   <si>
     <t>Cluster Administration</t>
@@ -384,8 +378,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,6 +775,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -798,18 +804,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -841,7 +835,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1106,68 +1100,68 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="5.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="5.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="113.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.125" customWidth="1"/>
-    <col min="10" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="16384" width="9.125" style="2"/>
+    <col min="1" max="3" width="5.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.3984375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="5.3984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="113.3984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.1328125" customWidth="1"/>
+    <col min="10" max="10" width="29.46484375" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="F1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
@@ -1179,18 +1173,18 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
@@ -1199,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
@@ -1214,15 +1208,15 @@
         <v>6</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="8">
         <v>2</v>
@@ -1231,10 +1225,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="4">
         <v>3</v>
@@ -1246,15 +1240,15 @@
         <v>13</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="8">
         <v>2</v>
@@ -1263,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>12</v>
@@ -1278,15 +1272,15 @@
         <v>18</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="8">
         <v>2</v>
@@ -1295,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
@@ -1310,15 +1304,15 @@
         <v>14</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
@@ -1327,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
@@ -1342,15 +1336,15 @@
         <v>15</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="8">
         <v>2</v>
@@ -1359,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>12</v>
@@ -1374,15 +1368,15 @@
         <v>16</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
@@ -1391,7 +1385,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
@@ -1406,15 +1400,15 @@
         <v>17</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="8">
         <v>3</v>
@@ -1423,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>20</v>
@@ -1438,15 +1432,15 @@
         <v>21</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="8">
         <v>3</v>
@@ -1455,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>20</v>
@@ -1470,88 +1464,88 @@
         <v>22</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="26">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="8">
-        <v>3</v>
-      </c>
-      <c r="C12" s="25">
-        <v>3</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5</v>
+      </c>
+      <c r="C13" s="25">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4</v>
-      </c>
-      <c r="G12" s="4">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24">
-      <c r="A13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="12">
-        <v>4</v>
-      </c>
-      <c r="C13" s="26">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F13" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="8">
         <v>5</v>
       </c>
       <c r="C14" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>0</v>
@@ -1560,398 +1554,398 @@
         <v>1</v>
       </c>
       <c r="G14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J14" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="8">
+        <v>6</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="4">
+        <v>6</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" s="27">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="8">
-        <v>5</v>
-      </c>
-      <c r="C15" s="25">
-        <v>2</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="36">
-      <c r="A16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="8">
-        <v>6</v>
-      </c>
-      <c r="C16" s="25">
-        <v>1</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="4">
-        <v>6</v>
-      </c>
-      <c r="G16" s="4">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="24">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="14">
         <v>1</v>
       </c>
       <c r="C17" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
       </c>
       <c r="G17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="27">
+        <v>3</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="14">
-        <v>1</v>
-      </c>
-      <c r="C18" s="27">
-        <v>2</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="4">
         <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J18" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="51">
+        <v>2</v>
+      </c>
+      <c r="C19" s="47">
+        <v>1</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="43">
+        <v>2</v>
+      </c>
+      <c r="G19" s="43">
+        <v>7</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="50"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="14">
+        <v>2</v>
+      </c>
+      <c r="C21" s="27">
+        <v>2</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="14">
+        <v>3</v>
+      </c>
+      <c r="C22" s="27">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="37" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="36">
-      <c r="A19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="14">
-        <v>1</v>
-      </c>
-      <c r="C19" s="27">
-        <v>3</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="J22" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="14">
+        <v>3</v>
+      </c>
+      <c r="C23" s="27">
+        <v>2</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="14">
+        <v>3</v>
+      </c>
+      <c r="C24" s="27">
+        <v>3</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="4">
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="27">
         <v>4</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="36">
-      <c r="A20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="14">
-        <v>1</v>
-      </c>
-      <c r="C20" s="27">
-        <v>4</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="D25" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="E25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="4">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="60">
-      <c r="A21" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="51">
-        <v>2</v>
-      </c>
-      <c r="C21" s="43">
-        <v>1</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="39">
-        <v>2</v>
-      </c>
-      <c r="G21" s="39">
-        <v>7</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="24">
-      <c r="A22" s="50"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="14">
-        <v>2</v>
-      </c>
-      <c r="C23" s="27">
-        <v>2</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4">
-        <v>6</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="14">
-        <v>3</v>
-      </c>
-      <c r="C24" s="27">
-        <v>1</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="14">
-        <v>3</v>
-      </c>
-      <c r="C25" s="27">
-        <v>2</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="F25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="4">
         <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>8</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="14">
         <v>3</v>
       </c>
       <c r="C26" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F26" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="14">
         <v>3</v>
       </c>
       <c r="C27" s="27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>5</v>
@@ -1960,324 +1954,260 @@
         <v>2</v>
       </c>
       <c r="G27" s="4">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="14">
         <v>4</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="14">
-        <v>3</v>
-      </c>
       <c r="C28" s="27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F28" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G28" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J28" s="28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="27">
+        <v>2</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="4">
         <v>6</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="4">
-        <v>2</v>
-      </c>
       <c r="G29" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="14">
         <v>4</v>
       </c>
       <c r="C30" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F30" s="4">
         <v>6</v>
       </c>
       <c r="G30" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>78</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="14">
         <v>4</v>
       </c>
       <c r="C31" s="27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F31" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G31" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>78</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="4">
         <v>6</v>
       </c>
       <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="51">
+        <v>5</v>
+      </c>
+      <c r="C33" s="47">
+        <v>2</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="43">
         <v>6</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="36" t="s">
+      <c r="G33" s="43">
+        <v>5</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="J32" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="14">
-        <v>4</v>
-      </c>
-      <c r="C33" s="27">
-        <v>4</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="4" t="s">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="50"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="4">
-        <v>3</v>
-      </c>
-      <c r="G33" s="4">
-        <v>9</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="F35" s="23">
+        <v>3</v>
+      </c>
+      <c r="G35" s="23">
+        <v>6</v>
+      </c>
+      <c r="H35" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="14">
-        <v>5</v>
-      </c>
-      <c r="C34" s="27">
-        <v>1</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="4">
-        <v>6</v>
-      </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J34" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="51">
-        <v>5</v>
-      </c>
-      <c r="C35" s="43">
-        <v>2</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="39">
-        <v>6</v>
-      </c>
-      <c r="G35" s="39">
-        <v>5</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="50"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="23">
-        <v>3</v>
-      </c>
-      <c r="G37" s="23">
-        <v>6</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="J37" s="31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="I35" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H37">
+  <autoFilter ref="A1:H35">
     <sortState ref="A2:H35">
       <sortCondition ref="A2:A35"/>
       <sortCondition ref="B2:B35"/>
@@ -2290,22 +2220,22 @@
     <sortCondition ref="C2:C35"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/outline/outline.xlsx
+++ b/outline/outline.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="90">
   <si>
     <t>Installation and Configuration</t>
   </si>
@@ -195,22 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大纲内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大纲模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Queries</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,14 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模块编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块子编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Define a mapping that satisfies a given set of requirements</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,32 +219,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模块编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Document APIs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Indices APIs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Query DSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-Search APIs</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -332,15 +287,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Painless Scripting Language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -372,6 +319,43 @@
   </si>
   <si>
     <t>Blog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query DSL
+Search APIs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exam Objective Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exam Objective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesson</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,15 +402,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -657,7 +640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,18 +656,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -694,20 +665,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -715,9 +677,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -733,48 +692,72 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -788,10 +771,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -799,23 +782,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1100,608 +1080,608 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="5.59765625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.86328125" style="26" customWidth="1"/>
     <col min="4" max="4" width="37.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.3984375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="5.3984375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="11.265625" style="29" customWidth="1"/>
     <col min="8" max="8" width="113.3984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.1328125" customWidth="1"/>
-    <col min="10" max="10" width="29.46484375" customWidth="1"/>
+    <col min="9" max="9" width="24.1328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="29.46484375" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="A1" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="48">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F2" s="27">
+        <v>2</v>
+      </c>
+      <c r="G2" s="27">
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>66</v>
+      <c r="I2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="48">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="27">
+        <v>2</v>
+      </c>
+      <c r="G3" s="27">
         <v>2</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>65</v>
+      <c r="I3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="8">
-        <v>2</v>
-      </c>
-      <c r="C4" s="25">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>62</v>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="48">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4">
+        <v>52</v>
+      </c>
+      <c r="F4" s="27">
+        <v>3</v>
+      </c>
+      <c r="G4" s="27">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>67</v>
+      <c r="I4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="25">
-        <v>2</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="48">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="27">
+        <v>3</v>
+      </c>
+      <c r="G5" s="27">
         <v>7</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>78</v>
+      <c r="I5" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="25">
-        <v>3</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="48">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="27">
+        <v>3</v>
+      </c>
+      <c r="G6" s="27">
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>69</v>
+      <c r="I6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-      <c r="C7" s="25">
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="48">
         <v>4</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="27">
+        <v>3</v>
+      </c>
+      <c r="G7" s="27">
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="35" t="s">
-        <v>78</v>
+      <c r="I7" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="48">
         <v>5</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4">
-        <v>3</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="27">
+        <v>3</v>
+      </c>
+      <c r="G8" s="27">
         <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="35" t="s">
-        <v>78</v>
+      <c r="I8" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="25">
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="48">
         <v>6</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="4">
-        <v>3</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="27">
+        <v>3</v>
+      </c>
+      <c r="G9" s="27">
         <v>5</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="35" t="s">
-        <v>78</v>
+      <c r="I9" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-      <c r="C10" s="25">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>63</v>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="48">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="27">
         <v>4</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="27">
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>57</v>
+      <c r="I10" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="8">
-        <v>3</v>
-      </c>
-      <c r="C11" s="25">
-        <v>2</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="48">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="27">
         <v>4</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="27">
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>57</v>
+      <c r="I11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="7">
         <v>4</v>
       </c>
-      <c r="C12" s="26">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="48">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="27">
         <v>5</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="27">
         <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>86</v>
+        <v>54</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>5</v>
       </c>
-      <c r="C13" s="25">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="48">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="27">
+        <v>1</v>
+      </c>
+      <c r="G13" s="27">
         <v>1</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>71</v>
+      <c r="I13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>5</v>
       </c>
-      <c r="C14" s="25">
-        <v>2</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="48">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14" s="27">
+        <v>1</v>
+      </c>
+      <c r="G14" s="27">
         <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>72</v>
+      <c r="I14" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>6</v>
       </c>
-      <c r="C15" s="25">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="48">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="27">
         <v>6</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="27">
         <v>3</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>87</v>
+      <c r="I15" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="14">
-        <v>1</v>
-      </c>
-      <c r="C16" s="27">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="49">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="27">
         <v>5</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="27">
         <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>73</v>
+      <c r="I16" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="14">
-        <v>1</v>
-      </c>
-      <c r="C17" s="27">
-        <v>2</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="49">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="27">
         <v>5</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="27">
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>74</v>
+      <c r="I17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="14">
-        <v>1</v>
-      </c>
-      <c r="C18" s="27">
-        <v>3</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="49">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="27">
         <v>5</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="27">
         <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>75</v>
+      <c r="I18" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="63.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="51">
-        <v>2</v>
-      </c>
-      <c r="C19" s="47">
+      <c r="B19" s="37">
+        <v>2</v>
+      </c>
+      <c r="C19" s="50">
         <v>1</v>
       </c>
       <c r="D19" s="39" t="s">
@@ -1719,421 +1699,421 @@
       <c r="H19" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>88</v>
+      <c r="I19" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="48"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="40"/>
       <c r="E20" s="42"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="46"/>
-      <c r="I20" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>79</v>
+      <c r="I20" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="14">
-        <v>2</v>
-      </c>
-      <c r="C21" s="27">
-        <v>2</v>
-      </c>
-      <c r="D21" s="17" t="s">
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="49">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="4">
-        <v>2</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="F21" s="27">
+        <v>2</v>
+      </c>
+      <c r="G21" s="27">
         <v>6</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>65</v>
+      <c r="I21" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="14">
-        <v>3</v>
-      </c>
-      <c r="C22" s="27">
-        <v>1</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="B22" s="8">
+        <v>3</v>
+      </c>
+      <c r="C22" s="49">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="F22" s="27">
+        <v>1</v>
+      </c>
+      <c r="G22" s="27">
         <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>89</v>
+      <c r="I22" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="14">
-        <v>3</v>
-      </c>
-      <c r="C23" s="27">
-        <v>2</v>
-      </c>
-      <c r="D23" s="17" t="s">
+      <c r="B23" s="8">
+        <v>3</v>
+      </c>
+      <c r="C23" s="49">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F23" s="27">
+        <v>1</v>
+      </c>
+      <c r="G23" s="27">
         <v>4</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>89</v>
+      <c r="I23" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="14">
-        <v>3</v>
-      </c>
-      <c r="C24" s="27">
-        <v>3</v>
-      </c>
-      <c r="D24" s="17" t="s">
+      <c r="B24" s="8">
+        <v>3</v>
+      </c>
+      <c r="C24" s="49">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="4">
-        <v>2</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="F24" s="27">
+        <v>2</v>
+      </c>
+      <c r="G24" s="27">
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>66</v>
+      <c r="I24" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="14">
-        <v>3</v>
-      </c>
-      <c r="C25" s="27">
+      <c r="B25" s="8">
+        <v>3</v>
+      </c>
+      <c r="C25" s="49">
         <v>4</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="4">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25" s="27">
+        <v>2</v>
+      </c>
+      <c r="G25" s="27">
         <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>66</v>
+      <c r="I25" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="14">
-        <v>3</v>
-      </c>
-      <c r="C26" s="27">
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+      <c r="C26" s="49">
         <v>5</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="4">
-        <v>3</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="F26" s="27">
+        <v>3</v>
+      </c>
+      <c r="G26" s="27">
         <v>8</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>70</v>
+      <c r="I26" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="14">
-        <v>3</v>
-      </c>
-      <c r="C27" s="27">
+      <c r="B27" s="8">
+        <v>3</v>
+      </c>
+      <c r="C27" s="49">
         <v>6</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="4">
-        <v>2</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="F27" s="27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="27">
         <v>5</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>74</v>
+      <c r="I27" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="8">
         <v>4</v>
       </c>
-      <c r="C28" s="27">
-        <v>1</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="49">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="27">
         <v>6</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="27">
         <v>4</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>72</v>
+      <c r="I28" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="8">
         <v>4</v>
       </c>
-      <c r="C29" s="27">
-        <v>2</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="C29" s="49">
+        <v>2</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="27">
         <v>6</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="27">
         <v>2</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J29" s="28" t="s">
-        <v>72</v>
+      <c r="I29" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="8">
         <v>4</v>
       </c>
-      <c r="C30" s="27">
-        <v>3</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="C30" s="49">
+        <v>3</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="27">
         <v>6</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="27">
         <v>6</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>72</v>
+      <c r="I30" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="8">
         <v>4</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="49">
         <v>4</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="4">
-        <v>3</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="F31" s="27">
+        <v>3</v>
+      </c>
+      <c r="G31" s="27">
         <v>9</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>72</v>
+      <c r="I31" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="8">
         <v>5</v>
       </c>
-      <c r="C32" s="27">
-        <v>1</v>
-      </c>
-      <c r="D32" s="17" t="s">
+      <c r="C32" s="49">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="27">
         <v>6</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="27">
         <v>1</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J32" s="29" t="s">
-        <v>77</v>
+      <c r="I32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="51">
+      <c r="B33" s="37">
         <v>5</v>
       </c>
-      <c r="C33" s="47">
+      <c r="C33" s="50">
         <v>2</v>
       </c>
       <c r="D33" s="39" t="s">
@@ -2151,80 +2131,60 @@
       <c r="H33" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>80</v>
+      <c r="I33" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="48"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="40"/>
       <c r="E34" s="42"/>
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
       <c r="H34" s="46"/>
-      <c r="I34" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>85</v>
+      <c r="I34" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="23">
-        <v>3</v>
-      </c>
-      <c r="G35" s="23">
+      <c r="F35" s="28">
+        <v>3</v>
+      </c>
+      <c r="G35" s="28">
         <v>6</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="J35" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="I35" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H35">
-    <sortState ref="A2:H35">
-      <sortCondition ref="A2:A35"/>
-      <sortCondition ref="B2:B35"/>
-      <sortCondition ref="C2:C35"/>
-    </sortState>
-  </autoFilter>
   <sortState ref="A2:I35">
     <sortCondition ref="A2:A35"/>
     <sortCondition ref="B2:B35"/>
     <sortCondition ref="C2:C35"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
@@ -2236,6 +2196,11 @@
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
